--- a/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
+++ b/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T17:43:27+00:00</t>
+    <t>2024-07-07T12:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
+++ b/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-07T12:30:20+00:00</t>
+    <t>2024-07-09T13:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
+++ b/r5-core-STU2-Ballot-Preparation-Narratives/StructureDefinition-at-core-extendedContactDetail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T13:47:47+00:00</t>
+    <t>2024-07-10T08:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
